--- a/biology/Biologie cellulaire et moléculaire/Beth_Shapiro/Beth_Shapiro.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Beth_Shapiro/Beth_Shapiro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beth Alison Shapiro, née en 1976[1] à Allentown (Pennsylvanie), est une biologiste moléculaire évolutionniste américaine. Elle est professeure au département d'écologie et de biologie évolutive de l'Université de Californie à Santa Cruz. Le travail de Shapiro s'est concentré sur l'analyse de l'ADN ancien[2]. Elle a reçu une bourse MacArthur  en 2009[1],[3] et une bourse de recherche universitaire de la Royal Society (URF) en 2006.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beth Alison Shapiro, née en 1976 à Allentown (Pennsylvanie), est une biologiste moléculaire évolutionniste américaine. Elle est professeure au département d'écologie et de biologie évolutive de l'Université de Californie à Santa Cruz. Le travail de Shapiro s'est concentré sur l'analyse de l'ADN ancien. Elle a reçu une bourse MacArthur  en 2009, et une bourse de recherche universitaire de la Royal Society (URF) en 2006.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Jeunesse et éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beth Shapiro est née à Allentown, en Pennsylvanie[4] et a grandi à Rome, en Géorgie, où elle a été présentatrice de nouvelles locales alors qu'elle était au lycée[5]. Elle est diplômée de l'Université de Géorgie en 1999 avec un baccalauréat ès arts et une maîtrise ès arts en écologie[1]. La même année, elle a reçu une bourse Rhodes[5] suivie d'un doctorat en philosophie de l'Université d'Oxford pour des recherches sur la déduction de l'histoire et des processus évolutifs utilisant l'ADN ancien sous la direction d'Alan J. Cooper (en).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beth Shapiro est née à Allentown, en Pennsylvanie et a grandi à Rome, en Géorgie, où elle a été présentatrice de nouvelles locales alors qu'elle était au lycée. Elle est diplômée de l'Université de Géorgie en 1999 avec un baccalauréat ès arts et une maîtrise ès arts en écologie. La même année, elle a reçu une bourse Rhodes suivie d'un doctorat en philosophie de l'Université d'Oxford pour des recherches sur la déduction de l'histoire et des processus évolutifs utilisant l'ADN ancien sous la direction d'Alan J. Cooper (en).
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Carrière et recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2004, elle est nommée directrice du Henry Wellcome Biomolecules Center à Oxford, poste qu'elle occupe jusqu'en 2007. En 2006, elle a reçu une bourse de recherche universitaire de la Royal Society. Pendant son séjour au Centre des biomolécules, Shapiro a effectué une analyse de l'ADN mitochondrial du dodo[6],[7].
-Les recherches de Shapiro sur l'écologie ont été publiées dans des revues notamment Molecular Biology and Evolution [8], PLOS Biology[9], Science[6],[10],[11] et Nature[12],[13],[14]. En 2007, elle a été nommée par le Smithsonian Magazine comme l'une des 37 jeunes innovateurs américains de moins de 36 ans[15].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2004, elle est nommée directrice du Henry Wellcome Biomolecules Center à Oxford, poste qu'elle occupe jusqu'en 2007. En 2006, elle a reçu une bourse de recherche universitaire de la Royal Society. Pendant son séjour au Centre des biomolécules, Shapiro a effectué une analyse de l'ADN mitochondrial du dodo,.
+Les recherches de Shapiro sur l'écologie ont été publiées dans des revues notamment Molecular Biology and Evolution , PLOS Biology, Science et Nature. En 2007, elle a été nommée par le Smithsonian Magazine comme l'une des 37 jeunes innovateurs américains de moins de 36 ans.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Drummond, Rambaut, Shapiro et Pybus, « Bayesian Coalescent Inference of Past Population Dynamics from Molecular Sequences », Molecular Biology and Evolution, vol. 22, no 5,‎ 2005, p. 1185–1192 (ISSN 0737-4038, PMID 15703244, DOI 10.1093/molbev/msi103)
 Shapiro, « Rise and Fall of the Beringian Steppe Bison », Science, vol. 306, no 5701,‎ 2004, p. 1561–1565 (ISSN 0036-8075, PMID 15567864, DOI 10.1126/science.1101074, Bibcode 2004Sci...306.1561S, lire en ligne) 
@@ -609,14 +627,16 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-National Geographic Emerging Explorer (2010)[16]
-University of Georgia Young Alumnus Award (2010)[17]
-MacArthur Fellowship (2009)[1]
+National Geographic Emerging Explorer (2010)
+University of Georgia Young Alumnus Award (2010)
+MacArthur Fellowship (2009)
 Smithsonian Magazine Young American Innovator in the Arts and Sciences (2007)[réf. nécessaire]
-Royal Society University Research Fellowship(2006)[18]
+Royal Society University Research Fellowship(2006)
 Rhodes Scholarship (1999)
 Phi Beta Kappa Society (1998)[réf. nécessaire]
 Morris K. Udall Scholarship for Excellence in Environmental Public Policy (1997)[réf. nécessaire]
